--- a/payment_jetcheckout_system/static/src/xlsx/template_item_import.xlsx
+++ b/payment_jetcheckout_system/static/src/xlsx/template_item_import.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{346FA816-595D-46FA-B7EA-55C40254C492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8E9A14-412C-45E6-B07F-9B4F626182E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +456,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,22 +500,25 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1234567890</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4">
         <v>5000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
